--- a/STM32F767VG_breakout/Pin Info.xlsx
+++ b/STM32F767VG_breakout/Pin Info.xlsx
@@ -3,13 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC048EE9-EC12-4DEC-AB5B-C96328782ED2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A3059E-DCFC-427C-8B59-E22FA8BB4909}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$4:$G$104</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -20,10 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
-  <si>
-    <t>Notes</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="35">
   <si>
     <t>TXD0</t>
   </si>
@@ -49,9 +49,6 @@
     <t>Ethernet</t>
   </si>
   <si>
-    <t>Pin Name</t>
-  </si>
-  <si>
     <t>VBAT</t>
   </si>
   <si>
@@ -103,17 +100,41 @@
     <t>NINT</t>
   </si>
   <si>
-    <t>CLK</t>
-  </si>
-  <si>
     <t>TXEN</t>
+  </si>
+  <si>
+    <t>Functionality from previous board</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ca/datasheet/2/389/stm32f765bg-956218.pdf</t>
+  </si>
+  <si>
+    <t>Pin Name/Signal</t>
+  </si>
+  <si>
+    <t>Pins</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>I/O</t>
+  </si>
+  <si>
+    <t>Pin Type</t>
+  </si>
+  <si>
+    <t>p.65 - 83</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,16 +142,64 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -147,26 +216,89 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -441,234 +573,1036 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2020D1F1-7DFC-4D51-87FD-D640D533AD5A}">
-  <dimension ref="A4:D31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28476274-E47B-4639-BAF1-6CE1D96DDCCE}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C4" s="1" t="s">
+    <row r="1" spans="1:7" ht="20" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="2"/>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="13"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="F10" s="13"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B11" s="1">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="13"/>
+    </row>
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>8</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="F12" s="13"/>
+    </row>
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="F13" s="13"/>
+    </row>
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="1">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="13"/>
+    </row>
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="1">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="13"/>
+    </row>
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="F16" s="13"/>
+    </row>
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="B17" s="1">
+        <v>13</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="F17" s="13"/>
+    </row>
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="1">
+        <v>14</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="12"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B19" s="1">
+        <v>15</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="13"/>
+    </row>
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1">
+        <v>16</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="13"/>
+      <c r="G20" s="12"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B21" s="1">
+        <v>17</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="13"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B22" s="1">
+        <v>18</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="13"/>
+    </row>
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="1">
+        <v>19</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="F23" s="13"/>
+    </row>
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="1">
+        <v>20</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="F24" s="13"/>
+    </row>
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="1">
+        <v>21</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="13"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B26" s="1">
+        <v>22</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="13"/>
+    </row>
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="1">
+        <v>23</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="13"/>
+      <c r="G27" s="12"/>
+    </row>
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="1">
+        <v>24</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" s="13"/>
+      <c r="G28" s="12"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B29" s="1">
+        <v>25</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" s="13"/>
+    </row>
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="1">
+        <v>26</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" s="13"/>
+    </row>
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="1">
+        <v>27</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" s="13"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B32" s="1">
+        <v>28</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F32" s="13"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B33" s="1">
+        <v>29</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33" s="13"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B34" s="1">
+        <v>30</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F34" s="13"/>
+    </row>
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="1">
+        <v>31</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" s="13"/>
+      <c r="G35" s="12"/>
+    </row>
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="1">
+        <v>32</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F36" s="13"/>
+      <c r="G36" s="12"/>
+    </row>
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="1">
+        <v>33</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F37" s="13"/>
+      <c r="G37" s="12"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B38" s="1">
+        <v>34</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F38" s="13"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B39" s="1">
+        <v>35</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F39" s="13"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B40" s="1">
+        <v>36</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F40" s="13"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B41" s="1">
+        <v>37</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F41" s="13"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B42" s="1">
+        <v>38</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F42" s="13"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B43" s="1">
+        <v>39</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F43" s="13"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B44" s="1">
+        <v>40</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F44" s="13"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B45" s="1">
+        <v>41</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F45" s="13"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B46" s="1">
+        <v>42</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F46" s="13"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B47" s="1">
+        <v>43</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F47" s="13"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B48" s="1">
+        <v>44</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F48" s="13"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B49" s="1">
+        <v>45</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F49" s="13"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B50" s="1">
+        <v>46</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F50" s="13"/>
+    </row>
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51" s="1">
+        <v>47</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F51" s="13"/>
+      <c r="G51" s="12"/>
+    </row>
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="1">
+        <v>48</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F52" s="13"/>
+    </row>
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="1">
+        <v>49</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F53" s="13"/>
+    </row>
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="1">
+        <v>50</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F54" s="13"/>
+    </row>
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="1">
+      <c r="B55" s="1">
+        <v>51</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F55" s="13"/>
+      <c r="G55" s="12"/>
+    </row>
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B56" s="1">
+        <v>52</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F56" s="13"/>
+      <c r="G56" s="12"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B57" s="1">
+        <v>53</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F57" s="13"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B58" s="1">
+        <v>54</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F58" s="13"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B59" s="1">
+        <v>55</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F59" s="13"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B60" s="1">
+        <v>56</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F60" s="13"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B61" s="1">
+        <v>57</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F61" s="13"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B62" s="1">
+        <v>58</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F62" s="13"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B63" s="1">
+        <v>59</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F63" s="13"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B64" s="1">
+        <v>60</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F64" s="13"/>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B65" s="1">
+        <v>61</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B66" s="1">
+        <v>62</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B67" s="1">
+        <v>63</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B68" s="1">
+        <v>64</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B69" s="1">
+        <v>65</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B70" s="1">
+        <v>66</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B71" s="1">
+        <v>67</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B72" s="1">
+        <v>68</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B73" s="1">
+        <v>69</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B74" s="1">
+        <v>70</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B75" s="1">
+        <v>71</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="1">
+        <v>73</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B77" s="1">
+        <v>74</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="1">
+        <v>75</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B79" s="1">
+        <v>77</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B80" s="1">
+        <v>78</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B81" s="1">
+        <v>79</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B82" s="1">
+        <v>80</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B83" s="1">
+        <v>81</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B84" s="1">
+        <v>82</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B85" s="1">
+        <v>83</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B86" s="1">
+        <v>84</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B87" s="1">
+        <v>85</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B88" s="1">
+        <v>86</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B89" s="1">
+        <v>87</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B90" s="1">
+        <v>88</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B91" s="1">
+        <v>90</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B92" s="1">
+        <v>91</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B93" s="1">
+        <v>92</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B94" s="1">
+        <v>93</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>22</v>
+      </c>
+      <c r="B95" s="1">
+        <v>94</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F95" s="11"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B96" s="1">
+        <v>95</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B97" s="1">
+        <v>96</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B98" s="1">
+        <v>97</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B99" s="1">
+        <v>98</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B100" s="1">
+        <v>99</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B101" s="1">
+        <v>100</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B13" s="1" t="s">
+      <c r="B102" s="1">
+        <v>72</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E102" s="10"/>
+    </row>
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="1">
+      <c r="B103" s="1">
+        <v>76</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E103" s="10"/>
+    </row>
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="1">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="1">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="1">
+      <c r="B104" s="1">
         <v>89</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="1">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="1">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B23" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" s="1">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="1">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B26" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="1">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B30" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B31" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" s="1">
-        <v>23</v>
-      </c>
-      <c r="D31" t="s">
-        <v>27</v>
-      </c>
+      <c r="C104" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E104" s="10"/>
     </row>
   </sheetData>
+  <autoFilter ref="A4:G104" xr:uid="{2A7576AC-D1FF-4C5B-9383-CE0E9085678D}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="I/O"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <colorFilter dxfId="3"/>
+    </filterColumn>
+    <filterColumn colId="4">
+      <colorFilter dxfId="2"/>
+    </filterColumn>
+    <filterColumn colId="5">
+      <colorFilter dxfId="1"/>
+    </filterColumn>
+    <filterColumn colId="6">
+      <colorFilter dxfId="0"/>
+    </filterColumn>
+  </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{11EE6EDA-03F5-4700-B2B4-0D66E975AF8D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/STM32F767VG_breakout/Pin Info.xlsx
+++ b/STM32F767VG_breakout/Pin Info.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A3059E-DCFC-427C-8B59-E22FA8BB4909}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
@@ -14,8 +13,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$4:$G$104</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -133,8 +132,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,40 +264,7 @@
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -354,7 +320,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -389,7 +355,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -566,23 +532,22 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28476274-E47B-4639-BAF1-6CE1D96DDCCE}">
-  <sheetPr filterMode="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M40" sqref="M40"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="15.08984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.453125" bestFit="1" customWidth="1"/>
@@ -590,7 +555,7 @@
     <col min="4" max="4" width="14.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" ht="20" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
@@ -601,8 +566,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="15" thickTop="1"/>
+    <row r="3" spans="1:7">
       <c r="A3" s="2"/>
       <c r="B3" s="4" t="s">
         <v>11</v>
@@ -613,7 +578,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7">
       <c r="A4" s="5" t="s">
         <v>28</v>
       </c>
@@ -636,7 +601,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7">
       <c r="B5" s="1">
         <v>1</v>
       </c>
@@ -644,7 +609,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7">
       <c r="B6" s="1">
         <v>2</v>
       </c>
@@ -652,7 +617,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7">
       <c r="B7" s="1">
         <v>3</v>
       </c>
@@ -660,7 +625,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7">
       <c r="B8" s="1">
         <v>4</v>
       </c>
@@ -669,7 +634,7 @@
       </c>
       <c r="F8" s="13"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7">
       <c r="B9" s="1">
         <v>5</v>
       </c>
@@ -678,7 +643,7 @@
       </c>
       <c r="F9" s="13"/>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -691,7 +656,7 @@
       <c r="D10" s="9"/>
       <c r="F10" s="13"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7">
       <c r="B11" s="1">
         <v>7</v>
       </c>
@@ -700,7 +665,7 @@
       </c>
       <c r="F11" s="13"/>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -713,7 +678,7 @@
       <c r="D12" s="9"/>
       <c r="F12" s="13"/>
     </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -726,7 +691,7 @@
       <c r="D13" s="9"/>
       <c r="F13" s="13"/>
     </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7">
       <c r="B14" s="1">
         <v>10</v>
       </c>
@@ -735,7 +700,7 @@
       </c>
       <c r="F14" s="13"/>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7">
       <c r="B15" s="1">
         <v>11</v>
       </c>
@@ -744,7 +709,7 @@
       </c>
       <c r="F15" s="13"/>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
@@ -757,7 +722,7 @@
       <c r="D16" s="9"/>
       <c r="F16" s="13"/>
     </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
@@ -770,7 +735,7 @@
       <c r="D17" s="9"/>
       <c r="F17" s="13"/>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
@@ -785,7 +750,7 @@
       <c r="F18" s="13"/>
       <c r="G18" s="12"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7">
       <c r="B19" s="1">
         <v>15</v>
       </c>
@@ -794,7 +759,7 @@
       </c>
       <c r="F19" s="13"/>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -807,7 +772,7 @@
       <c r="F20" s="13"/>
       <c r="G20" s="12"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7">
       <c r="B21" s="1">
         <v>17</v>
       </c>
@@ -816,7 +781,7 @@
       </c>
       <c r="F21" s="13"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7">
       <c r="B22" s="1">
         <v>18</v>
       </c>
@@ -825,7 +790,7 @@
       </c>
       <c r="F22" s="13"/>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
         <v>15</v>
       </c>
@@ -838,7 +803,7 @@
       <c r="D23" s="9"/>
       <c r="F23" s="13"/>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
@@ -851,7 +816,7 @@
       <c r="D24" s="9"/>
       <c r="F24" s="13"/>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7">
       <c r="B25" s="1">
         <v>21</v>
       </c>
@@ -860,7 +825,7 @@
       </c>
       <c r="F25" s="13"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7">
       <c r="B26" s="1">
         <v>22</v>
       </c>
@@ -869,7 +834,7 @@
       </c>
       <c r="F26" s="13"/>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
@@ -882,7 +847,7 @@
       <c r="F27" s="13"/>
       <c r="G27" s="12"/>
     </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
         <v>4</v>
       </c>
@@ -895,7 +860,7 @@
       <c r="F28" s="13"/>
       <c r="G28" s="12"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7">
       <c r="B29" s="1">
         <v>25</v>
       </c>
@@ -904,7 +869,7 @@
       </c>
       <c r="F29" s="13"/>
     </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7">
       <c r="B30" s="1">
         <v>26</v>
       </c>
@@ -913,7 +878,7 @@
       </c>
       <c r="F30" s="13"/>
     </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7">
       <c r="B31" s="1">
         <v>27</v>
       </c>
@@ -922,7 +887,7 @@
       </c>
       <c r="F31" s="13"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7">
       <c r="B32" s="1">
         <v>28</v>
       </c>
@@ -931,7 +896,7 @@
       </c>
       <c r="F32" s="13"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7">
       <c r="B33" s="1">
         <v>29</v>
       </c>
@@ -940,7 +905,7 @@
       </c>
       <c r="F33" s="13"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7">
       <c r="B34" s="1">
         <v>30</v>
       </c>
@@ -949,7 +914,7 @@
       </c>
       <c r="F34" s="13"/>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
         <v>23</v>
       </c>
@@ -962,7 +927,7 @@
       <c r="F35" s="13"/>
       <c r="G35" s="12"/>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
         <v>2</v>
       </c>
@@ -975,7 +940,7 @@
       <c r="F36" s="13"/>
       <c r="G36" s="12"/>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
         <v>3</v>
       </c>
@@ -988,7 +953,7 @@
       <c r="F37" s="13"/>
       <c r="G37" s="12"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7">
       <c r="B38" s="1">
         <v>34</v>
       </c>
@@ -997,7 +962,7 @@
       </c>
       <c r="F38" s="13"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7">
       <c r="B39" s="1">
         <v>35</v>
       </c>
@@ -1006,7 +971,7 @@
       </c>
       <c r="F39" s="13"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7">
       <c r="B40" s="1">
         <v>36</v>
       </c>
@@ -1015,7 +980,7 @@
       </c>
       <c r="F40" s="13"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7">
       <c r="B41" s="1">
         <v>37</v>
       </c>
@@ -1024,7 +989,7 @@
       </c>
       <c r="F41" s="13"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7">
       <c r="B42" s="1">
         <v>38</v>
       </c>
@@ -1033,7 +998,7 @@
       </c>
       <c r="F42" s="13"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7">
       <c r="B43" s="1">
         <v>39</v>
       </c>
@@ -1042,7 +1007,7 @@
       </c>
       <c r="F43" s="13"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7">
       <c r="B44" s="1">
         <v>40</v>
       </c>
@@ -1051,7 +1016,7 @@
       </c>
       <c r="F44" s="13"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7">
       <c r="B45" s="1">
         <v>41</v>
       </c>
@@ -1060,7 +1025,7 @@
       </c>
       <c r="F45" s="13"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7">
       <c r="B46" s="1">
         <v>42</v>
       </c>
@@ -1069,7 +1034,7 @@
       </c>
       <c r="F46" s="13"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7">
       <c r="B47" s="1">
         <v>43</v>
       </c>
@@ -1078,7 +1043,7 @@
       </c>
       <c r="F47" s="13"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7">
       <c r="B48" s="1">
         <v>44</v>
       </c>
@@ -1087,7 +1052,7 @@
       </c>
       <c r="F48" s="13"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7">
       <c r="B49" s="1">
         <v>45</v>
       </c>
@@ -1096,7 +1061,7 @@
       </c>
       <c r="F49" s="13"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7">
       <c r="B50" s="1">
         <v>46</v>
       </c>
@@ -1105,7 +1070,7 @@
       </c>
       <c r="F50" s="13"/>
     </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
         <v>25</v>
       </c>
@@ -1118,7 +1083,7 @@
       <c r="F51" s="13"/>
       <c r="G51" s="12"/>
     </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7">
       <c r="B52" s="1">
         <v>48</v>
       </c>
@@ -1127,7 +1092,7 @@
       </c>
       <c r="F52" s="13"/>
     </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7">
       <c r="B53" s="1">
         <v>49</v>
       </c>
@@ -1136,7 +1101,7 @@
       </c>
       <c r="F53" s="13"/>
     </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7">
       <c r="B54" s="1">
         <v>50</v>
       </c>
@@ -1145,7 +1110,7 @@
       </c>
       <c r="F54" s="13"/>
     </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
         <v>0</v>
       </c>
@@ -1158,7 +1123,7 @@
       <c r="F55" s="13"/>
       <c r="G55" s="12"/>
     </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
         <v>1</v>
       </c>
@@ -1171,7 +1136,7 @@
       <c r="F56" s="13"/>
       <c r="G56" s="12"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7">
       <c r="B57" s="1">
         <v>53</v>
       </c>
@@ -1180,7 +1145,7 @@
       </c>
       <c r="F57" s="13"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7">
       <c r="B58" s="1">
         <v>54</v>
       </c>
@@ -1189,7 +1154,7 @@
       </c>
       <c r="F58" s="13"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7">
       <c r="B59" s="1">
         <v>55</v>
       </c>
@@ -1198,7 +1163,7 @@
       </c>
       <c r="F59" s="13"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7">
       <c r="B60" s="1">
         <v>56</v>
       </c>
@@ -1207,7 +1172,7 @@
       </c>
       <c r="F60" s="13"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7">
       <c r="B61" s="1">
         <v>57</v>
       </c>
@@ -1216,7 +1181,7 @@
       </c>
       <c r="F61" s="13"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7">
       <c r="B62" s="1">
         <v>58</v>
       </c>
@@ -1225,7 +1190,7 @@
       </c>
       <c r="F62" s="13"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7">
       <c r="B63" s="1">
         <v>59</v>
       </c>
@@ -1234,7 +1199,7 @@
       </c>
       <c r="F63" s="13"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7">
       <c r="B64" s="1">
         <v>60</v>
       </c>
@@ -1243,7 +1208,7 @@
       </c>
       <c r="F64" s="13"/>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:3">
       <c r="B65" s="1">
         <v>61</v>
       </c>
@@ -1251,7 +1216,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:3">
       <c r="B66" s="1">
         <v>62</v>
       </c>
@@ -1259,7 +1224,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:3">
       <c r="B67" s="1">
         <v>63</v>
       </c>
@@ -1267,7 +1232,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:3">
       <c r="B68" s="1">
         <v>64</v>
       </c>
@@ -1275,7 +1240,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:3">
       <c r="B69" s="1">
         <v>65</v>
       </c>
@@ -1283,7 +1248,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:3">
       <c r="B70" s="1">
         <v>66</v>
       </c>
@@ -1291,7 +1256,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:3">
       <c r="B71" s="1">
         <v>67</v>
       </c>
@@ -1299,7 +1264,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:3">
       <c r="B72" s="1">
         <v>68</v>
       </c>
@@ -1307,7 +1272,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:3">
       <c r="B73" s="1">
         <v>69</v>
       </c>
@@ -1315,7 +1280,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:3">
       <c r="B74" s="1">
         <v>70</v>
       </c>
@@ -1323,7 +1288,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:3">
       <c r="B75" s="1">
         <v>71</v>
       </c>
@@ -1331,7 +1296,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:3">
       <c r="B76" s="1">
         <v>73</v>
       </c>
@@ -1339,7 +1304,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="77" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:3">
       <c r="B77" s="1">
         <v>74</v>
       </c>
@@ -1347,7 +1312,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="78" spans="2:3" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:3">
       <c r="B78" s="1">
         <v>75</v>
       </c>
@@ -1355,7 +1320,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:3">
       <c r="B79" s="1">
         <v>77</v>
       </c>
@@ -1363,7 +1328,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:3">
       <c r="B80" s="1">
         <v>78</v>
       </c>
@@ -1371,7 +1336,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6">
       <c r="B81" s="1">
         <v>79</v>
       </c>
@@ -1379,7 +1344,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6">
       <c r="B82" s="1">
         <v>80</v>
       </c>
@@ -1387,7 +1352,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6">
       <c r="B83" s="1">
         <v>81</v>
       </c>
@@ -1395,7 +1360,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6">
       <c r="B84" s="1">
         <v>82</v>
       </c>
@@ -1403,7 +1368,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6">
       <c r="B85" s="1">
         <v>83</v>
       </c>
@@ -1411,7 +1376,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6">
       <c r="B86" s="1">
         <v>84</v>
       </c>
@@ -1419,7 +1384,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6">
       <c r="B87" s="1">
         <v>85</v>
       </c>
@@ -1427,7 +1392,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6">
       <c r="B88" s="1">
         <v>86</v>
       </c>
@@ -1435,7 +1400,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6">
       <c r="B89" s="1">
         <v>87</v>
       </c>
@@ -1443,7 +1408,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6">
       <c r="B90" s="1">
         <v>88</v>
       </c>
@@ -1451,7 +1416,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6">
       <c r="B91" s="1">
         <v>90</v>
       </c>
@@ -1459,7 +1424,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6">
       <c r="B92" s="1">
         <v>91</v>
       </c>
@@ -1467,7 +1432,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6">
       <c r="B93" s="1">
         <v>92</v>
       </c>
@@ -1475,7 +1440,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6">
       <c r="B94" s="1">
         <v>93</v>
       </c>
@@ -1483,7 +1448,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6">
       <c r="A95" t="s">
         <v>22</v>
       </c>
@@ -1495,7 +1460,7 @@
       </c>
       <c r="F95" s="11"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6">
       <c r="B96" s="1">
         <v>95</v>
       </c>
@@ -1503,7 +1468,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5">
       <c r="B97" s="1">
         <v>96</v>
       </c>
@@ -1511,7 +1476,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5">
       <c r="B98" s="1">
         <v>97</v>
       </c>
@@ -1519,7 +1484,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5">
       <c r="B99" s="1">
         <v>98</v>
       </c>
@@ -1527,7 +1492,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5">
       <c r="B100" s="1">
         <v>99</v>
       </c>
@@ -1535,7 +1500,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5">
       <c r="B101" s="1">
         <v>100</v>
       </c>
@@ -1543,7 +1508,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5">
       <c r="A102" s="1" t="s">
         <v>19</v>
       </c>
@@ -1555,7 +1520,7 @@
       </c>
       <c r="E102" s="10"/>
     </row>
-    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5">
       <c r="A103" s="1" t="s">
         <v>18</v>
       </c>
@@ -1567,7 +1532,7 @@
       </c>
       <c r="E103" s="10"/>
     </row>
-    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5">
       <c r="A104" s="1" t="s">
         <v>20</v>
       </c>
@@ -1580,27 +1545,15 @@
       <c r="E104" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:G104" xr:uid="{2A7576AC-D1FF-4C5B-9383-CE0E9085678D}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="I/O"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="3">
-      <colorFilter dxfId="3"/>
-    </filterColumn>
-    <filterColumn colId="4">
-      <colorFilter dxfId="2"/>
-    </filterColumn>
-    <filterColumn colId="5">
-      <colorFilter dxfId="1"/>
-    </filterColumn>
-    <filterColumn colId="6">
-      <colorFilter dxfId="0"/>
-    </filterColumn>
+  <autoFilter ref="A4:G104">
+    <filterColumn colId="2"/>
+    <filterColumn colId="3"/>
+    <filterColumn colId="4"/>
+    <filterColumn colId="5"/>
+    <filterColumn colId="6"/>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{11EE6EDA-03F5-4700-B2B4-0D66E975AF8D}"/>
+    <hyperlink ref="B1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
